--- a/export/export_files/MIRA Safety Mira Tactical NIJ Body Armor Level 4 Plates/MIRA Safety Mira Tactical NIJ B.xlsx
+++ b/export/export_files/MIRA Safety Mira Tactical NIJ Body Armor Level 4 Plates/MIRA Safety Mira Tactical NIJ B.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,31 +448,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://preparedbee.com/products/mira-safety-tactical-level-4-body-armor-plate-nij-level-iv-armor?srsltid=AfmBOooGIbb-ua3AJSUd40qOUOGwdFYiF5L2W0o57sUDUbZwFkKjAguL</t>
+          <t>https://www.mirasafetyj.shop/product/mira-tactical-level-4-body-armor-plate/</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>135.95</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.mirasafetyj.shop/product/mira-tactical-level-4-body-armor-plate/</t>
+          <t>https://proudlibertarian.com/products/mira-tactical-level-4-body-armor-plate?srsltid=AfmBOoqv8Aj8s9vil20VkHm3LBb2GmOEaaCqiEIGu7DqYHrNRfJZP39S</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>135.95</t>
+          <t>139.95</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://proudlibertarian.com/products/mira-tactical-level-4-body-armor-plate?srsltid=AfmBOopXasuweEriozuHa_lgpzWnctkfuQ4djffqh3ajsWgW02gN3UEa</t>
+          <t>https://greentipsurplus.com/products/mira-tactical-level-4-body-armor-plate?srsltid=AfmBOoqwBTLmMaEbfnBG0mh2c-Q4DBP9YHgh2cz85f8l-1BmOigrJR9P</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,36 +484,36 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.mancaveandapparel.com/products/mira-tactical-level-4-body-armor-plate?srsltid=AfmBOooZwRwWaphRd0kzqQTyw3atp7nrHbcUYePJUmRklYRp_V5BPnrJ</t>
+          <t>https://www.phoenixrising.store/MIRA-Safety-Tactical-Level-4-Body-Armor-Plate_p_243.html</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>139.95</t>
+          <t>219.99</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://lifeprotectors.com/products/mira-mt-lvl4-sp1-tactical-level-4-body-armor-side-plate-6x6x1-no-tax-and-free-shipping?srsltid=AfmBOopCER6abU8COJOnPZ3wOecsq7LoplUoF-ztVeIQcJkZAScj0T9U</t>
+          <t>https://thehainescompany.com/products/mira-tactical-level-4-body-armor-plate?srsltid=AfmBOor7ZoXtmqb0nXV9B9f4v1LnMzP-my_JvwEfzrHJbKjO2R-eUqed</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>139.97</t>
+          <t>249.0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://thehainescompany.com/products/mira-tactical-level-4-body-armor-plate?srsltid=AfmBOoqoOwRY4NOdo9rBZRuc8rlWt3RbsQQcgtrc2GYMHeikbKc9pEOX</t>
+          <t>https://readymaderesources.com/product/mira-tactical-level-4-body-armor-plate/</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>249.0</t>
+          <t>249.97</t>
         </is>
       </c>
     </row>
@@ -526,18 +526,6 @@
       <c r="B8" t="inlineStr">
         <is>
           <t>250.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.keepshooting.com/mira-tactical-level-4-body-armor-plate.html?srsltid=AfmBOorYFH1iA0zbhkGwFTVVn95uSYhHjd1Vg0TBFAMfsBELJ3GKZksR</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>259.55</t>
         </is>
       </c>
     </row>
